--- a/com.sevenrmartsupermarket/ExcelFiles/Push notification data.xlsx
+++ b/com.sevenrmartsupermarket/ExcelFiles/Push notification data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chila\git\com.sevenrmartsupermarket\com.sevenrmartsupermarket\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D645B31-A2A1-4FB9-931A-5AD5231FD666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E972F0CD-EEF5-44C2-93BF-41BEBF733786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A660DD7F-95FF-470C-B059-5190FD366443}"/>
   </bookViews>
@@ -42,10 +42,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>user</t>
+    <t>user login successfully</t>
   </si>
   <si>
-    <t>user login successfully</t>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,10 +424,10 @@
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
